--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05538566666666667</v>
+        <v>0.09427400000000001</v>
       </c>
       <c r="H2">
-        <v>0.166157</v>
+        <v>0.282822</v>
       </c>
       <c r="I2">
-        <v>0.440848175790588</v>
+        <v>0.5730152684128631</v>
       </c>
       <c r="J2">
-        <v>0.440848175790588</v>
+        <v>0.5730152684128631</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>28.82617866666667</v>
+        <v>0.6379899999999999</v>
       </c>
       <c r="N2">
-        <v>86.47853600000001</v>
+        <v>1.91397</v>
       </c>
       <c r="O2">
-        <v>0.9752740938196406</v>
+        <v>0.8729739184691609</v>
       </c>
       <c r="P2">
-        <v>0.9752740938196404</v>
+        <v>0.8729739184691611</v>
       </c>
       <c r="Q2">
-        <v>1.596557122905778</v>
+        <v>0.06014586926</v>
       </c>
       <c r="R2">
-        <v>14.369014106152</v>
+        <v>0.54131282334</v>
       </c>
       <c r="S2">
-        <v>0.4299478051562073</v>
+        <v>0.5002273842090351</v>
       </c>
       <c r="T2">
-        <v>0.4299478051562073</v>
+        <v>0.5002273842090352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05538566666666667</v>
+        <v>0.09427400000000001</v>
       </c>
       <c r="H3">
-        <v>0.166157</v>
+        <v>0.282822</v>
       </c>
       <c r="I3">
-        <v>0.440848175790588</v>
+        <v>0.5730152684128631</v>
       </c>
       <c r="J3">
-        <v>0.440848175790588</v>
+        <v>0.5730152684128631</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6379899999999999</v>
+        <v>0.09283366666666666</v>
       </c>
       <c r="N3">
-        <v>1.91397</v>
+        <v>0.278501</v>
       </c>
       <c r="O3">
-        <v>0.02158507120596927</v>
+        <v>0.1270260815308389</v>
       </c>
       <c r="P3">
-        <v>0.02158507120596927</v>
+        <v>0.127026081530839</v>
       </c>
       <c r="Q3">
-        <v>0.03533550147666666</v>
+        <v>0.008751801091333333</v>
       </c>
       <c r="R3">
-        <v>0.31801951329</v>
+        <v>0.078766209822</v>
       </c>
       <c r="S3">
-        <v>0.009515739265461502</v>
+        <v>0.07278788420382791</v>
       </c>
       <c r="T3">
-        <v>0.0095157392654615</v>
+        <v>0.07278788420382792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05538566666666667</v>
+        <v>0.023327</v>
       </c>
       <c r="H4">
-        <v>0.166157</v>
+        <v>0.069981</v>
       </c>
       <c r="I4">
-        <v>0.440848175790588</v>
+        <v>0.1417859342582987</v>
       </c>
       <c r="J4">
-        <v>0.440848175790588</v>
+        <v>0.1417859342582987</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09283366666666666</v>
+        <v>0.6379899999999999</v>
       </c>
       <c r="N4">
-        <v>0.278501</v>
+        <v>1.91397</v>
       </c>
       <c r="O4">
-        <v>0.003140834974390219</v>
+        <v>0.8729739184691609</v>
       </c>
       <c r="P4">
-        <v>0.003140834974390219</v>
+        <v>0.8729739184691611</v>
       </c>
       <c r="Q4">
-        <v>0.005141654517444444</v>
+        <v>0.01488239273</v>
       </c>
       <c r="R4">
-        <v>0.046274890657</v>
+        <v>0.13394153457</v>
       </c>
       <c r="S4">
-        <v>0.001384631368919206</v>
+        <v>0.1237754226132779</v>
       </c>
       <c r="T4">
-        <v>0.001384631368919206</v>
+        <v>0.1237754226132779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,48 +723,48 @@
         <v>0.023327</v>
       </c>
       <c r="H5">
-        <v>0.06998099999999999</v>
+        <v>0.069981</v>
       </c>
       <c r="I5">
-        <v>0.1856737675210863</v>
+        <v>0.1417859342582987</v>
       </c>
       <c r="J5">
-        <v>0.1856737675210863</v>
+        <v>0.1417859342582987</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>28.82617866666667</v>
+        <v>0.09283366666666666</v>
       </c>
       <c r="N5">
-        <v>86.47853600000001</v>
+        <v>0.278501</v>
       </c>
       <c r="O5">
-        <v>0.9752740938196406</v>
+        <v>0.1270260815308389</v>
       </c>
       <c r="P5">
-        <v>0.9752740938196404</v>
+        <v>0.127026081530839</v>
       </c>
       <c r="Q5">
-        <v>0.6724282697573333</v>
+        <v>0.002165530942333333</v>
       </c>
       <c r="R5">
-        <v>6.051854427815999</v>
+        <v>0.019489778481</v>
       </c>
       <c r="S5">
-        <v>0.181082815365206</v>
+        <v>0.01801051164502083</v>
       </c>
       <c r="T5">
-        <v>0.181082815365206</v>
+        <v>0.01801051164502083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.023327</v>
+        <v>0.04692166666666667</v>
       </c>
       <c r="H6">
-        <v>0.06998099999999999</v>
+        <v>0.140765</v>
       </c>
       <c r="I6">
-        <v>0.1856737675210863</v>
+        <v>0.2851987973288382</v>
       </c>
       <c r="J6">
-        <v>0.1856737675210863</v>
+        <v>0.2851987973288382</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>1.91397</v>
       </c>
       <c r="O6">
-        <v>0.02158507120596927</v>
+        <v>0.8729739184691609</v>
       </c>
       <c r="P6">
-        <v>0.02158507120596927</v>
+        <v>0.8729739184691611</v>
       </c>
       <c r="Q6">
-        <v>0.01488239273</v>
+        <v>0.02993555411666667</v>
       </c>
       <c r="R6">
-        <v>0.13394153457</v>
+        <v>0.26941998705</v>
       </c>
       <c r="S6">
-        <v>0.004007781493023233</v>
+        <v>0.2489711116468479</v>
       </c>
       <c r="T6">
-        <v>0.004007781493023232</v>
+        <v>0.248971111646848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.023327</v>
+        <v>0.04692166666666667</v>
       </c>
       <c r="H7">
-        <v>0.06998099999999999</v>
+        <v>0.140765</v>
       </c>
       <c r="I7">
-        <v>0.1856737675210863</v>
+        <v>0.2851987973288382</v>
       </c>
       <c r="J7">
-        <v>0.1856737675210863</v>
+        <v>0.2851987973288382</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.278501</v>
       </c>
       <c r="O7">
-        <v>0.003140834974390219</v>
+        <v>0.1270260815308389</v>
       </c>
       <c r="P7">
-        <v>0.003140834974390219</v>
+        <v>0.127026081530839</v>
       </c>
       <c r="Q7">
-        <v>0.002165530942333333</v>
+        <v>0.004355910362777778</v>
       </c>
       <c r="R7">
-        <v>0.019489778481</v>
+        <v>0.039203193265</v>
       </c>
       <c r="S7">
-        <v>0.0005831706628570266</v>
+        <v>0.03622768568199021</v>
       </c>
       <c r="T7">
-        <v>0.0005831706628570266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04692166666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.140765</v>
-      </c>
-      <c r="I8">
-        <v>0.3734780566883256</v>
-      </c>
-      <c r="J8">
-        <v>0.3734780566883257</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>28.82617866666667</v>
-      </c>
-      <c r="N8">
-        <v>86.47853600000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9752740938196406</v>
-      </c>
-      <c r="P8">
-        <v>0.9752740938196404</v>
-      </c>
-      <c r="Q8">
-        <v>1.352572346671111</v>
-      </c>
-      <c r="R8">
-        <v>12.17315112004</v>
-      </c>
-      <c r="S8">
-        <v>0.3642434732982271</v>
-      </c>
-      <c r="T8">
-        <v>0.3642434732982271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04692166666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.140765</v>
-      </c>
-      <c r="I9">
-        <v>0.3734780566883256</v>
-      </c>
-      <c r="J9">
-        <v>0.3734780566883257</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6379899999999999</v>
-      </c>
-      <c r="N9">
-        <v>1.91397</v>
-      </c>
-      <c r="O9">
-        <v>0.02158507120596927</v>
-      </c>
-      <c r="P9">
-        <v>0.02158507120596927</v>
-      </c>
-      <c r="Q9">
-        <v>0.02993555411666667</v>
-      </c>
-      <c r="R9">
-        <v>0.26941998705</v>
-      </c>
-      <c r="S9">
-        <v>0.008061550447484538</v>
-      </c>
-      <c r="T9">
-        <v>0.008061550447484538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04692166666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.140765</v>
-      </c>
-      <c r="I10">
-        <v>0.3734780566883256</v>
-      </c>
-      <c r="J10">
-        <v>0.3734780566883257</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.09283366666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.278501</v>
-      </c>
-      <c r="O10">
-        <v>0.003140834974390219</v>
-      </c>
-      <c r="P10">
-        <v>0.003140834974390219</v>
-      </c>
-      <c r="Q10">
-        <v>0.004355910362777778</v>
-      </c>
-      <c r="R10">
-        <v>0.039203193265</v>
-      </c>
-      <c r="S10">
-        <v>0.001173032942613986</v>
-      </c>
-      <c r="T10">
-        <v>0.001173032942613986</v>
+        <v>0.03622768568199022</v>
       </c>
     </row>
   </sheetData>
